--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1760.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1760.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.09794569886651</v>
+        <v>0.2845560014247894</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.8495793342590332</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.697146378866392</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.201083467487262</v>
+        <v>1.115927577018738</v>
       </c>
     </row>
   </sheetData>
